--- a/data/data_one.xlsx
+++ b/data/data_one.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Docunments\Projects\Advaced-Applied-Statistics\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E278EE3-F83D-4ECA-9B3D-04B45304AA21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D3CD740-28BE-41DD-8F7F-76BC1E75835A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12864" yWindow="0" windowWidth="13152" windowHeight="16656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="19440" windowHeight="12120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="one" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>花旗集团</t>
   </si>
@@ -115,12 +115,135 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>北京大学</t>
+  </si>
+  <si>
+    <t>清华大学</t>
+  </si>
+  <si>
+    <t>浙江大学</t>
+  </si>
+  <si>
+    <t>中国科学技术大学</t>
+  </si>
+  <si>
+    <t>上海交通大学</t>
+  </si>
+  <si>
+    <t>复旦大学</t>
+  </si>
+  <si>
+    <t>南京大学</t>
+  </si>
+  <si>
+    <t>西安交通大学</t>
+  </si>
+  <si>
+    <r>
+      <t>东南大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>地区</t>
+  </si>
+  <si>
+    <r>
+      <t>人均</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>GDP</t>
+    </r>
+  </si>
+  <si>
+    <t>三产比重</t>
+  </si>
+  <si>
+    <t>人均消费</t>
+  </si>
+  <si>
+    <t>人口增长</t>
+  </si>
+  <si>
+    <t>内蒙古</t>
+  </si>
+  <si>
+    <t>广西</t>
+  </si>
+  <si>
+    <t>贵州</t>
+  </si>
+  <si>
+    <t>云南</t>
+  </si>
+  <si>
+    <t>西藏</t>
+  </si>
+  <si>
+    <t>宁夏</t>
+  </si>
+  <si>
+    <t>新疆</t>
+  </si>
+  <si>
+    <t>甘肃</t>
+  </si>
+  <si>
+    <t>青海</t>
+  </si>
+  <si>
+    <t>per te</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>st</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>per st</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>te</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>percent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>income</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>school</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,6 +301,32 @@
       <name val="Times New Roman"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -187,7 +336,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -215,11 +364,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -247,6 +440,39 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -552,7 +778,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -725,12 +951,286 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB50FC3F-0FA9-4FFC-8A83-58990D7965BA}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="11">
+        <v>44.27</v>
+      </c>
+      <c r="C2" s="11">
+        <v>99.62</v>
+      </c>
+      <c r="D2" s="12">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="E2" s="11">
+        <v>3959</v>
+      </c>
+      <c r="F2" s="11">
+        <v>111.8</v>
+      </c>
+      <c r="G2" s="11">
+        <v>39714</v>
+      </c>
+      <c r="H2" s="11">
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="11">
+        <v>49.1</v>
+      </c>
+      <c r="C3" s="11">
+        <v>149.79</v>
+      </c>
+      <c r="D3" s="12">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="E3" s="11">
+        <v>3395</v>
+      </c>
+      <c r="F3" s="11">
+        <v>144.6</v>
+      </c>
+      <c r="G3" s="11">
+        <v>43508</v>
+      </c>
+      <c r="H3" s="11">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="11">
+        <v>30.77</v>
+      </c>
+      <c r="C4" s="11">
+        <v>110.49</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="E4" s="11">
+        <v>3500</v>
+      </c>
+      <c r="F4" s="11">
+        <v>87.9</v>
+      </c>
+      <c r="G4" s="11">
+        <v>47300</v>
+      </c>
+      <c r="H4" s="11">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="11">
+        <v>23.53</v>
+      </c>
+      <c r="C5" s="11">
+        <v>38.71</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0.60799999999999998</v>
+      </c>
+      <c r="E5" s="11">
+        <v>1458</v>
+      </c>
+      <c r="F5" s="11">
+        <v>161.4</v>
+      </c>
+      <c r="G5" s="11">
+        <v>24753</v>
+      </c>
+      <c r="H5" s="11">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="11">
+        <v>27.32</v>
+      </c>
+      <c r="C6" s="11">
+        <v>91.83</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0.29799999999999999</v>
+      </c>
+      <c r="E6" s="11">
+        <v>2793</v>
+      </c>
+      <c r="F6" s="11">
+        <v>97.8</v>
+      </c>
+      <c r="G6" s="11">
+        <v>36535</v>
+      </c>
+      <c r="H6" s="11">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="11">
+        <v>28.64</v>
+      </c>
+      <c r="C7" s="11">
+        <v>56.86</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0.504</v>
+      </c>
+      <c r="E7" s="11">
+        <v>3786</v>
+      </c>
+      <c r="F7" s="11">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="G7" s="11">
+        <v>31395</v>
+      </c>
+      <c r="H7" s="11">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="11">
+        <v>20.37</v>
+      </c>
+      <c r="C8" s="11">
+        <v>40.479999999999997</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0.503</v>
+      </c>
+      <c r="E8" s="11">
+        <v>2195</v>
+      </c>
+      <c r="F8" s="11">
+        <v>92.8</v>
+      </c>
+      <c r="G8" s="11">
+        <v>29713</v>
+      </c>
+      <c r="H8" s="11">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="22.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="11">
+        <v>22.81</v>
+      </c>
+      <c r="C9" s="11">
+        <v>42.87</v>
+      </c>
+      <c r="D9" s="12">
+        <v>0.53200000000000003</v>
+      </c>
+      <c r="E9" s="11">
+        <v>2809</v>
+      </c>
+      <c r="F9" s="11">
+        <v>81.2</v>
+      </c>
+      <c r="G9" s="11">
+        <v>32200</v>
+      </c>
+      <c r="H9" s="11">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="14">
+        <v>17.96</v>
+      </c>
+      <c r="C10" s="14">
+        <v>39</v>
+      </c>
+      <c r="D10" s="15">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="E10" s="14">
+        <v>2700</v>
+      </c>
+      <c r="F10" s="14">
+        <v>66.5</v>
+      </c>
+      <c r="G10" s="14">
+        <v>30000</v>
+      </c>
+      <c r="H10" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -738,14 +1238,190 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70EE988E-4273-4C25-A93C-FA70C977BDA9}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="19">
+        <v>5068</v>
+      </c>
+      <c r="C2" s="19">
+        <v>31.1</v>
+      </c>
+      <c r="D2" s="19">
+        <v>2141</v>
+      </c>
+      <c r="E2" s="20">
+        <v>8.23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="19">
+        <v>4076</v>
+      </c>
+      <c r="C3" s="19">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="D3" s="19">
+        <v>2040</v>
+      </c>
+      <c r="E3" s="20">
+        <v>9.01</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="19">
+        <v>2342</v>
+      </c>
+      <c r="C4" s="19">
+        <v>29.8</v>
+      </c>
+      <c r="D4" s="19">
+        <v>1551</v>
+      </c>
+      <c r="E4" s="20">
+        <v>14.26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="19">
+        <v>4355</v>
+      </c>
+      <c r="C5" s="19">
+        <v>31.1</v>
+      </c>
+      <c r="D5" s="19">
+        <v>2059</v>
+      </c>
+      <c r="E5" s="20">
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="19">
+        <v>3716</v>
+      </c>
+      <c r="C6" s="19">
+        <v>43.5</v>
+      </c>
+      <c r="D6" s="19">
+        <v>1551</v>
+      </c>
+      <c r="E6" s="20">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="19">
+        <v>4270</v>
+      </c>
+      <c r="C7" s="19">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="D7" s="19">
+        <v>1947</v>
+      </c>
+      <c r="E7" s="20">
+        <v>13.08</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="19">
+        <v>6229</v>
+      </c>
+      <c r="C8" s="19">
+        <v>35.4</v>
+      </c>
+      <c r="D8" s="19">
+        <v>2745</v>
+      </c>
+      <c r="E8" s="20">
+        <v>12.81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="19">
+        <v>3456</v>
+      </c>
+      <c r="C9" s="19">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="D9" s="19">
+        <v>1612</v>
+      </c>
+      <c r="E9" s="20">
+        <v>10.039999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="19">
+        <v>4367</v>
+      </c>
+      <c r="C10" s="19">
+        <v>40.9</v>
+      </c>
+      <c r="D10" s="19">
+        <v>2047</v>
+      </c>
+      <c r="E10" s="20">
+        <v>14.48</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
